--- a/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Ngay</t>
   </si>
@@ -90,7 +90,7 @@
     <t>19 / 5 / 14</t>
   </si>
   <si>
-    <t> 41 41</t>
+    <t>41 41</t>
   </si>
   <si>
     <t>22 / 7/ 14</t>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>9/ 5/ 14</t>
+  </si>
+  <si>
+    <t>21 21</t>
   </si>
   <si>
     <t>15/ 6/ 14</t>
@@ -166,11 +169,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,18 +195,21 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -210,6 +217,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -217,16 +225,10 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -239,13 +241,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,7 +291,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,24 +320,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -424,7 +415,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D22"/>
@@ -456,6 +447,12 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
@@ -466,6 +463,7 @@
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -477,6 +475,7 @@
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -496,12 +495,13 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="n">
-        <v>121</v>
-      </c>
-      <c r="C6" s="11" t="n">
+      <c r="B6" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7" t="n">
         <v>14</v>
       </c>
+      <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -513,6 +513,7 @@
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -552,6 +553,7 @@
       <c r="C10" s="8" t="n">
         <v>41</v>
       </c>
+      <c r="D10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -563,6 +565,7 @@
       <c r="C11" s="8" t="n">
         <v>41</v>
       </c>
+      <c r="D11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -571,9 +574,10 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="7" t="n">
         <v>14</v>
       </c>
+      <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -589,6 +593,12 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+    </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>20</v>
@@ -596,9 +606,10 @@
       <c r="B15" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="7" t="n">
         <v>14</v>
       </c>
+      <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -610,6 +621,7 @@
       <c r="C16" s="8" t="n">
         <v>41</v>
       </c>
+      <c r="D16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -618,9 +630,10 @@
       <c r="B17" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="7" t="n">
         <v>14</v>
       </c>
+      <c r="D17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -632,6 +645,7 @@
       <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="D18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -643,6 +657,7 @@
       <c r="C19" s="8" t="n">
         <v>41</v>
       </c>
+      <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -651,9 +666,10 @@
       <c r="B20" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="7" t="n">
         <v>14</v>
       </c>
+      <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -676,7 +692,7 @@
       <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="7" t="n">
         <v>14</v>
       </c>
     </row>
@@ -694,18 +710,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="16.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.6683673469388"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.4183673469388"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="25.9795918367347"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.0918367346939"/>
@@ -726,8 +742,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -736,9 +758,10 @@
       <c r="C3" s="8" t="n">
         <v>21</v>
       </c>
+      <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="10" t="n">
@@ -752,7 +775,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -761,9 +784,10 @@
       <c r="C5" s="8" t="n">
         <v>21</v>
       </c>
+      <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="8" t="n">
@@ -772,9 +796,10 @@
       <c r="C6" s="8" t="n">
         <v>21</v>
       </c>
+      <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="10" t="n">
@@ -788,7 +813,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -797,9 +822,10 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="8" t="n">
@@ -808,9 +834,10 @@
       <c r="C9" s="8" t="n">
         <v>21</v>
       </c>
+      <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="8" t="n">
@@ -819,9 +846,16 @@
       <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="8" t="n">
@@ -830,9 +864,10 @@
       <c r="C12" s="8" t="n">
         <v>21</v>
       </c>
+      <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="8" t="n">
@@ -841,9 +876,10 @@
       <c r="C13" s="8" t="n">
         <v>21</v>
       </c>
+      <c r="D13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="8" t="n">
@@ -852,21 +888,23 @@
       <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="D14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>141</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
+      <c r="A16" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>141</v>
@@ -874,10 +912,11 @@
       <c r="C16" s="8" t="n">
         <v>12</v>
       </c>
+      <c r="D16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>44</v>
+      <c r="A17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>141</v>
@@ -885,10 +924,11 @@
       <c r="C17" s="8" t="n">
         <v>12</v>
       </c>
+      <c r="D17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>45</v>
+      <c r="A18" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>141</v>
@@ -896,10 +936,11 @@
       <c r="C18" s="8" t="n">
         <v>12</v>
       </c>
+      <c r="D18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>46</v>
+      <c r="A19" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>141</v>
@@ -914,7 +955,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\science\MakeMoney\Thong_Ke\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="208" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Cap 121" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Cap 141" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Cap 121" sheetId="1" r:id="rId1"/>
+    <sheet name="Cap 141" sheetId="2" r:id="rId2"/>
+    <sheet name="Theo doi cau" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Ngay</t>
   </si>
@@ -160,36 +165,33 @@
   </si>
   <si>
     <t>25/ 8/ 14</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Số điểm</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>10d</t>
+  </si>
+  <si>
+    <t>Số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,21 +200,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -220,7 +222,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -235,7 +237,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -243,7 +245,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,9 +258,15 @@
         <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -266,89 +274,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -407,33 +381,309 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="16.7109375" style="1"/>
+    <col min="2" max="2" width="20" style="2"/>
+    <col min="3" max="3" width="23.42578125" style="2"/>
+    <col min="4" max="4" width="24.28515625" style="3"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -447,13 +697,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -463,9 +713,9 @@
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -475,13 +725,13 @@
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="9">
         <v>121</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -491,31 +741,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>121</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="7">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7">
         <v>14</v>
       </c>
-      <c r="D6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8">
         <v>121</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,11 +779,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>121</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -543,47 +793,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="C10" s="8" t="n">
+      <c r="B10" s="8">
+        <v>121</v>
+      </c>
+      <c r="C10" s="8">
         <v>41</v>
       </c>
-      <c r="D10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="C11" s="8" t="n">
+      <c r="B11" s="8">
+        <v>121</v>
+      </c>
+      <c r="C11" s="8">
         <v>41</v>
       </c>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="9">
         <v>121</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -593,89 +843,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="8">
+        <v>121</v>
+      </c>
+      <c r="C15" s="7">
         <v>14</v>
       </c>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="C16" s="8" t="n">
+      <c r="B16" s="8">
+        <v>121</v>
+      </c>
+      <c r="C16" s="8">
         <v>41</v>
       </c>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="C17" s="7" t="n">
+      <c r="B17" s="8">
+        <v>121</v>
+      </c>
+      <c r="C17" s="7">
         <v>14</v>
       </c>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="8">
         <v>121</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="C19" s="8" t="n">
+      <c r="B19" s="8">
+        <v>121</v>
+      </c>
+      <c r="C19" s="8">
         <v>41</v>
       </c>
-      <c r="D19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="C20" s="7" t="n">
+      <c r="B20" s="8">
+        <v>121</v>
+      </c>
+      <c r="C20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="9">
         <v>121</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -685,22 +935,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="7">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -708,27 +957,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="25.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="16.7109375" style="11"/>
+    <col min="2" max="2" width="20.42578125" style="2"/>
+    <col min="3" max="3" width="26" style="2"/>
+    <col min="4" max="4" width="17.140625" style="2"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -742,29 +990,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>21</v>
       </c>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="10">
         <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -774,35 +1022,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>21</v>
       </c>
-      <c r="D5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>141</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>21</v>
       </c>
-      <c r="D6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="10">
         <v>141</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -812,7 +1060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -822,127 +1070,127 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="8">
         <v>141</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>21</v>
       </c>
-      <c r="D9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="8">
         <v>141</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="8">
         <v>141</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>21</v>
       </c>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="8">
         <v>141</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>21</v>
       </c>
-      <c r="D13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="8">
         <v>141</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="8">
         <v>141</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="8">
         <v>141</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>12</v>
       </c>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="8">
         <v>141</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="8">
         <v>12</v>
       </c>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="8">
         <v>141</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>12</v>
       </c>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>141</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -953,12 +1201,60 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="13" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>42379</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="13">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Ngay</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Số</t>
+  </si>
+  <si>
+    <t>Ko co so</t>
+  </si>
+  <si>
+    <t>20d</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1253,6 +1262,36 @@
       <c r="C2" s="13">
         <v>59</v>
       </c>
+      <c r="D2" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>42410</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>42439</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>42470</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="208" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="337" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cap 121" sheetId="1" r:id="rId1"/>
     <sheet name="Cap 141" sheetId="2" r:id="rId2"/>
     <sheet name="Theo doi cau" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Ngay</t>
   </si>
@@ -176,26 +177,47 @@
     <t>Income</t>
   </si>
   <si>
-    <t>10d</t>
-  </si>
-  <si>
     <t>Số</t>
   </si>
   <si>
     <t>Ko co so</t>
   </si>
   <si>
-    <t>20d</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>10dx2</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>30dx2</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>Hệ số</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>1X</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Tỉ lệ SUM/NET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -253,8 +275,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -286,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,6 +368,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,21 +1278,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="13" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29" style="16" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
@@ -1243,54 +1301,272 @@
         <v>49</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>42379</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="13">
-        <v>59</v>
+        <v>595</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E2" s="16">
+        <v>-460000</v>
+      </c>
+      <c r="F2" s="17">
+        <f>SUM(E1:E100)</f>
+        <v>2960000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>42410</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>42439</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>42470</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="13">
+        <v>616</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3420000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>61</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <f>2*B2*23000</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17">
+        <f>2*B3*23000</f>
+        <v>460000</v>
+      </c>
+      <c r="D3" s="20">
+        <f>C3+D2</f>
+        <v>460000</v>
+      </c>
+      <c r="E3" s="21">
+        <f>B3*80000</f>
+        <v>800000</v>
+      </c>
+      <c r="F3" s="21">
+        <f>E3-D3</f>
+        <v>340000</v>
+      </c>
+      <c r="G3">
+        <f>D3/F3</f>
+        <v>1.3529411764705883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:C7" si="0">2*B4*23000</f>
+        <v>1840000</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:D7" si="1">C4+D3</f>
+        <v>2300000</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E7" si="2">B4*80000</f>
+        <v>3200000</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F7" si="3">E4-D4</f>
+        <v>900000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G7" si="4">D4/F4</f>
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="0"/>
+        <v>5520000</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="1"/>
+        <v>7820000</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="2"/>
+        <v>9600000</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="3"/>
+        <v>1780000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4.393258426966292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>360</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="0"/>
+        <v>16560000</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="1"/>
+        <v>24380000</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="2"/>
+        <v>28800000</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="3"/>
+        <v>4420000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5.5158371040723981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>24380000</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="3"/>
+        <v>-24380000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cap_huyen_thoai.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="337" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="337" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cap 121" sheetId="1" r:id="rId1"/>
     <sheet name="Cap 141" sheetId="2" r:id="rId2"/>
     <sheet name="Theo doi cau" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Cong thuc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
